--- a/experiment_results/results-V2.xlsx
+++ b/experiment_results/results-V2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="instance01" sheetId="3" r:id="rId2"/>
     <sheet name="instance02" sheetId="4" r:id="rId3"/>
     <sheet name="instance03" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="instance04" sheetId="8" r:id="rId5"/>
+    <sheet name="instance05" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>square</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +142,30 @@
     <t>fix位置比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>北京MOMA办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞辰国际办公楼 13F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4*8.4*27=1905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38*14=532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(004)某某某会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*10=400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -193,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,11 +636,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="343331088"/>
-        <c:axId val="343331632"/>
+        <c:axId val="-404489632"/>
+        <c:axId val="-404499968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343331088"/>
+        <c:axId val="-404489632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +682,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343331632"/>
+        <c:crossAx val="-404499968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -664,7 +690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343331632"/>
+        <c:axId val="-404499968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -702,7 +728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343331088"/>
+        <c:crossAx val="-404489632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,8 +1204,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="343334352"/>
-        <c:axId val="343332720"/>
+        <c:axId val="-404492896"/>
+        <c:axId val="-404499424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1525,11 +1551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343335984"/>
-        <c:axId val="343339248"/>
+        <c:axId val="-404490720"/>
+        <c:axId val="-404498880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343334352"/>
+        <c:axId val="-404492896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1598,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343332720"/>
+        <c:crossAx val="-404499424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1580,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343332720"/>
+        <c:axId val="-404499424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,12 +1657,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343334352"/>
+        <c:crossAx val="-404492896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343339248"/>
+        <c:axId val="-404498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,12 +1699,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343335984"/>
+        <c:crossAx val="-404490720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="343335984"/>
+        <c:axId val="-404490720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1714,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343339248"/>
+        <c:crossAx val="-404498880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,8 +2172,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139572080"/>
-        <c:axId val="2139569360"/>
+        <c:axId val="-404495616"/>
+        <c:axId val="-404494528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2484,11 +2510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="418630496"/>
-        <c:axId val="418627776"/>
+        <c:axId val="-404497248"/>
+        <c:axId val="-404497792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139572080"/>
+        <c:axId val="-404495616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139569360"/>
+        <c:crossAx val="-404494528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2539,7 +2565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139569360"/>
+        <c:axId val="-404494528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,12 +2616,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139572080"/>
+        <c:crossAx val="-404495616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="418627776"/>
+        <c:axId val="-404497792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,12 +2658,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418630496"/>
+        <c:crossAx val="-404497248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="418630496"/>
+        <c:axId val="-404497248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2673,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418627776"/>
+        <c:crossAx val="-404497792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3105,8 +3131,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="523129200"/>
-        <c:axId val="523129744"/>
+        <c:axId val="-404496704"/>
+        <c:axId val="-404496160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3443,11 +3469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="432281440"/>
-        <c:axId val="432285248"/>
+        <c:axId val="-685516144"/>
+        <c:axId val="-404493984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523129200"/>
+        <c:axId val="-404496704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3490,7 +3516,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523129744"/>
+        <c:crossAx val="-404496160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3498,7 +3524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523129744"/>
+        <c:axId val="-404496160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,12 +3575,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523129200"/>
+        <c:crossAx val="-404496704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432285248"/>
+        <c:axId val="-404493984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,12 +3617,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432281440"/>
+        <c:crossAx val="-685516144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="432281440"/>
+        <c:axId val="-685516144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3632,1799 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432285248"/>
+        <c:crossAx val="-404493984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance04!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance04!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance04!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance04!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance04!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance04!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance04!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance04!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance04!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-323867232"/>
+        <c:axId val="-323875392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance04!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance04!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance04!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance04!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance04!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance04!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance04!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance04!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance04!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-323872128"/>
+        <c:axId val="-323872672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-323867232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-323875392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-323875392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-323867232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-323872672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-323872128"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-323872128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-323872672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance05!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance05!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance05!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance05!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance05!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance05!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance05!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance05!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance05!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-323868320"/>
+        <c:axId val="-323865056"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance05!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance05!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance05!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance05!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance05!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance05!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance05!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance05!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance05!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-323875936"/>
+        <c:axId val="-323864512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-323868320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-323865056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-323865056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-323868320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-323864512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-323875936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-323875936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-323864512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3850,6 +5668,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -5421,6 +7319,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6044,6 +8974,80 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6975,7 +9979,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7391,7 +10395,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7487,6 +10491,9 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
       <c r="F4">
         <v>2</v>
       </c>
@@ -7791,8 +10798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7825,7 +10832,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -7865,40 +10872,100 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
       <c r="I3">
         <v>15</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="2">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
       <c r="P3">
         <v>3.17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
       <c r="I4">
         <v>31</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="2">
+        <v>0.9768</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
       <c r="P4">
         <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>53</v>
+      </c>
       <c r="I5">
         <v>47</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="2">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
       <c r="P5">
         <v>0.51</v>
       </c>
@@ -7913,12 +10980,31 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>74</v>
+      </c>
       <c r="I6">
         <v>61</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="2">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:L12" si="0">1-R6</f>
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
       <c r="P6">
         <v>10.11</v>
       </c>
@@ -7933,12 +11019,31 @@
       <c r="F7">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>102</v>
+      </c>
+      <c r="H7">
+        <v>124</v>
+      </c>
       <c r="I7">
         <v>76</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="2">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
       <c r="P7">
         <v>1.42</v>
       </c>
@@ -7953,12 +11058,31 @@
       <c r="F8">
         <v>6</v>
       </c>
+      <c r="G8">
+        <v>151</v>
+      </c>
+      <c r="H8">
+        <v>124</v>
+      </c>
       <c r="I8">
         <v>92</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="2">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
       <c r="P8">
         <v>2.59</v>
       </c>
@@ -7973,12 +11097,31 @@
       <c r="F9">
         <v>7</v>
       </c>
+      <c r="G9">
+        <v>151</v>
+      </c>
+      <c r="H9">
+        <v>124</v>
+      </c>
       <c r="I9">
         <v>107</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="2">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
       <c r="P9">
         <v>1.18</v>
       </c>
@@ -7993,12 +11136,31 @@
       <c r="F10">
         <v>8</v>
       </c>
+      <c r="G10">
+        <v>151</v>
+      </c>
+      <c r="H10">
+        <v>268</v>
+      </c>
       <c r="I10">
         <v>121</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="2">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
       <c r="P10">
         <v>0.77</v>
       </c>
@@ -8013,12 +11175,31 @@
       <c r="F11">
         <v>9</v>
       </c>
+      <c r="G11">
+        <v>151</v>
+      </c>
+      <c r="H11">
+        <v>268</v>
+      </c>
       <c r="I11">
         <v>135</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
+      <c r="J11" s="2">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
       <c r="P11">
         <v>9.94</v>
       </c>
@@ -8033,12 +11214,31 @@
       <c r="F12">
         <v>10</v>
       </c>
+      <c r="G12">
+        <v>151</v>
+      </c>
+      <c r="H12">
+        <v>268</v>
+      </c>
       <c r="I12">
         <v>149</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
       <c r="P12">
         <v>19.95</v>
       </c>
@@ -8058,19 +11258,773 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <f>1-R3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>0.03</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L12" si="0">1-R4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>0.03</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>0.05</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>0.06</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>0.04</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>0.1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>149</v>
+      </c>
+      <c r="H10">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>0.12</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>149</v>
+      </c>
+      <c r="H11">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>0.05</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>149</v>
+      </c>
+      <c r="H12">
+        <v>62</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>0.11</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="P3">
+        <v>0.03</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="P4">
+        <v>3.8</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1"/>
+      <c r="P5">
+        <v>15.6</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="P6">
+        <v>0.03</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="P7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="P8">
+        <v>0.04</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="R10" s="6"/>
+      <c r="T10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="R12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/experiment_results/results-V2.xlsx
+++ b/experiment_results/results-V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="instance03" sheetId="6" r:id="rId4"/>
     <sheet name="instance04" sheetId="8" r:id="rId5"/>
     <sheet name="instance05" sheetId="9" r:id="rId6"/>
+    <sheet name="instance06" sheetId="10" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>square</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +167,18 @@
     <t>40*10=400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>南京联润办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.9*16.2 = 889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太仓市浏河镇财税局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -212,13 +225,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -285,7 +298,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -636,11 +648,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-404489632"/>
-        <c:axId val="-404499968"/>
+        <c:axId val="1499923168"/>
+        <c:axId val="1499918816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-404489632"/>
+        <c:axId val="1499923168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +694,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404499968"/>
+        <c:crossAx val="1499918816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -690,7 +702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-404499968"/>
+        <c:axId val="1499918816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -728,7 +740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404489632"/>
+        <c:crossAx val="1499923168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,7 +766,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -836,7 +847,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1204,8 +1214,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-404492896"/>
-        <c:axId val="-404499424"/>
+        <c:axId val="1499913376"/>
+        <c:axId val="1499914464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1551,11 +1561,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-404490720"/>
-        <c:axId val="-404498880"/>
+        <c:axId val="1499919360"/>
+        <c:axId val="1499920448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-404492896"/>
+        <c:axId val="1499913376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1608,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404499424"/>
+        <c:crossAx val="1499914464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-404499424"/>
+        <c:axId val="1499914464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,12 +1667,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404492896"/>
+        <c:crossAx val="1499913376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-404498880"/>
+        <c:axId val="1499920448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1709,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404490720"/>
+        <c:crossAx val="1499919360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-404490720"/>
+        <c:axId val="1499919360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1724,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-404498880"/>
+        <c:crossAx val="1499920448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,7 +1741,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1813,7 +1822,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2172,8 +2180,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-404495616"/>
-        <c:axId val="-404494528"/>
+        <c:axId val="1499924256"/>
+        <c:axId val="1499915008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2510,11 +2518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-404497248"/>
-        <c:axId val="-404497792"/>
+        <c:axId val="1499919904"/>
+        <c:axId val="1499924800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-404495616"/>
+        <c:axId val="1499924256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,7 +2565,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404494528"/>
+        <c:crossAx val="1499915008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2565,7 +2573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-404494528"/>
+        <c:axId val="1499915008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,12 +2624,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404495616"/>
+        <c:crossAx val="1499924256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-404497792"/>
+        <c:axId val="1499924800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,12 +2666,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404497248"/>
+        <c:crossAx val="1499919904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-404497248"/>
+        <c:axId val="1499919904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2681,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-404497792"/>
+        <c:crossAx val="1499924800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2690,7 +2698,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2772,7 +2779,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3131,8 +3137,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-404496704"/>
-        <c:axId val="-404496160"/>
+        <c:axId val="1337713104"/>
+        <c:axId val="1699407056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3469,11 +3475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-685516144"/>
-        <c:axId val="-404493984"/>
+        <c:axId val="1699396176"/>
+        <c:axId val="1699401616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-404496704"/>
+        <c:axId val="1337713104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,7 +3522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404496160"/>
+        <c:crossAx val="1699407056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3524,7 +3530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-404496160"/>
+        <c:axId val="1699407056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,12 +3581,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-404496704"/>
+        <c:crossAx val="1337713104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-404493984"/>
+        <c:axId val="1699401616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3617,12 +3623,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-685516144"/>
+        <c:crossAx val="1699396176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-685516144"/>
+        <c:axId val="1699396176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3638,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-404493984"/>
+        <c:crossAx val="1699401616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3649,7 +3655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4099,8 +4104,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-323867232"/>
-        <c:axId val="-323875392"/>
+        <c:axId val="1699403792"/>
+        <c:axId val="1699403248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4446,11 +4451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-323872128"/>
-        <c:axId val="-323872672"/>
+        <c:axId val="1699398352"/>
+        <c:axId val="1699396720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-323867232"/>
+        <c:axId val="1699403792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4498,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-323875392"/>
+        <c:crossAx val="1699403248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4501,7 +4506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-323875392"/>
+        <c:axId val="1699403248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,12 +4557,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-323867232"/>
+        <c:crossAx val="1699403792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-323872672"/>
+        <c:axId val="1699396720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4594,12 +4599,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-323872128"/>
+        <c:crossAx val="1699398352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-323872128"/>
+        <c:axId val="1699398352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4609,7 +4614,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-323872672"/>
+        <c:crossAx val="1699396720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4819,6 +4824,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4897,6 +4932,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4991,6 +5056,18 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5004,8 +5081,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-323868320"/>
-        <c:axId val="-323865056"/>
+        <c:axId val="1699408688"/>
+        <c:axId val="1699408144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5023,6 +5100,117 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance05!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance05!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85840000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance05!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5082,91 +5270,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>instance05!$J$3:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>instance05!$K$1:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>覆盖率 -</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>hexagon</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>instance05!$F$3:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>instance05!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5246,6 +5383,36 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5261,11 +5428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-323875936"/>
-        <c:axId val="-323864512"/>
+        <c:axId val="1699397808"/>
+        <c:axId val="1699397264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-323868320"/>
+        <c:axId val="1699408688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +5475,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-323865056"/>
+        <c:crossAx val="1699408144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5316,7 +5483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-323865056"/>
+        <c:axId val="1699408144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,12 +5534,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-323868320"/>
+        <c:crossAx val="1699408688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-323864512"/>
+        <c:axId val="1699397264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,12 +5576,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-323875936"/>
+        <c:crossAx val="1699397808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-323875936"/>
+        <c:axId val="1699397808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +5591,966 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-323864512"/>
+        <c:crossAx val="1699397264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance06!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance06!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance06!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance06!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance06!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance06!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance06!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance06!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance06!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1496313488"/>
+        <c:axId val="1496310224"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance06!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance06!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance06!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.97560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95509999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86560000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance06!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance06!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance06!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95009999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95640000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>instance06!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>instance06!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>instance06!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1496316208"/>
+        <c:axId val="1496314032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1496313488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496310224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1496310224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496313488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1496314032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496316208"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1496316208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1496314032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5748,6 +6874,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -8351,6 +9517,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9048,6 +10730,43 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9634,13 +11353,13 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -9985,27 +11704,27 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -10032,16 +11751,16 @@
       <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F3">
@@ -10401,27 +12120,27 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -10805,27 +12524,27 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -11268,33 +12987,33 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -11330,14 +13049,14 @@
       <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11416,7 +13135,7 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>0</v>
       </c>
       <c r="T4" s="2"/>
@@ -11457,7 +13176,7 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="T5" s="2"/>
@@ -11498,7 +13217,7 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="2"/>
@@ -11539,7 +13258,7 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="T7" s="2"/>
@@ -11580,7 +13299,7 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <v>0</v>
       </c>
       <c r="T8" s="2"/>
@@ -11621,7 +13340,7 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <v>0</v>
       </c>
       <c r="T9" s="2"/>
@@ -11662,7 +13381,7 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
         <v>0</v>
       </c>
       <c r="T10" s="2"/>
@@ -11703,7 +13422,7 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11742,7 +13461,7 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11767,34 +13486,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -11830,14 +13549,14 @@
       <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11846,12 +13565,31 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <f>1-R3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
       <c r="P3">
         <v>0.03</v>
       </c>
@@ -11863,22 +13601,44 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L12" si="0">1-R4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
       <c r="P4">
         <v>3.8</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>0</v>
       </c>
       <c r="T4" s="2"/>
@@ -11888,19 +13648,38 @@
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
       <c r="I5">
         <v>9</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="2">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
       <c r="P5">
         <v>15.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="T5" s="2"/>
@@ -11910,19 +13689,38 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
       <c r="I6">
         <v>13</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="2">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
       <c r="P6">
         <v>0.03</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="2"/>
@@ -11932,19 +13730,38 @@
       <c r="F7">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
       <c r="I7">
         <v>16</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
       <c r="P7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="T7" s="2"/>
@@ -11954,19 +13771,38 @@
       <c r="F8">
         <v>6</v>
       </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>26</v>
+      </c>
       <c r="I8">
         <v>20</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
       <c r="P8">
         <v>0.04</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <v>0</v>
       </c>
       <c r="T8" s="2"/>
@@ -11976,10 +13812,40 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="R9" s="6"/>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>0.08</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="V9" s="1"/>
     </row>
@@ -11987,10 +13853,40 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="R10" s="6"/>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>54</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1.02</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="V10" s="1"/>
     </row>
@@ -11998,19 +13894,558 @@
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
-      <c r="R11" s="6"/>
+      <c r="G11">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>0.06</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="G12">
+        <v>115</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <f>1-R12</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1.2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <f>1-R3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L12" si="0">1-R4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>3.85</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>15.04</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>0.32</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>49</v>
+      </c>
+      <c r="H8">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.9667</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>0.51</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>58</v>
+      </c>
+      <c r="H9">
+        <v>49</v>
+      </c>
+      <c r="I9">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>17.79</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>0.19</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.9244</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>0.15</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.86560000000000004</v>
+      </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
-      <c r="R12" s="6"/>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>0.96</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/experiment_results/results-V2.xlsx
+++ b/experiment_results/results-V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="small-instance11" sheetId="14" r:id="rId14"/>
     <sheet name="small-instance14" sheetId="18" r:id="rId15"/>
     <sheet name="small-instance15" sheetId="19" r:id="rId16"/>
+    <sheet name="平均" sheetId="20" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="61">
   <si>
     <t>square</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,11 +282,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正三角形法</t>
+    <t>我们的方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我们的方法</t>
+    <t>等边三角形法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +542,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正三角形法</c:v>
+                  <c:v>等边三角形法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,11 +751,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="735832336"/>
-        <c:axId val="735831792"/>
+        <c:axId val="1122794816"/>
+        <c:axId val="1122791552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="735832336"/>
+        <c:axId val="1122794816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +866,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735831792"/>
+        <c:crossAx val="1122791552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -873,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="735831792"/>
+        <c:axId val="1122791552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -967,7 +968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735832336"/>
+        <c:crossAx val="1122794816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,8 +1444,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="811942752"/>
-        <c:axId val="811939488"/>
+        <c:axId val="1005655808"/>
+        <c:axId val="1005661792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1790,11 +1791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811940032"/>
-        <c:axId val="811949824"/>
+        <c:axId val="1247571136"/>
+        <c:axId val="1247576032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811942752"/>
+        <c:axId val="1005655808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1838,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811939488"/>
+        <c:crossAx val="1005661792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1845,7 +1846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811939488"/>
+        <c:axId val="1005661792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,12 +1897,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811942752"/>
+        <c:crossAx val="1005655808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="811949824"/>
+        <c:axId val="1247576032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,12 +1939,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811940032"/>
+        <c:crossAx val="1247571136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811940032"/>
+        <c:axId val="1247571136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1954,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="811949824"/>
+        <c:crossAx val="1247576032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2420,8 +2421,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="811938400"/>
-        <c:axId val="811936768"/>
+        <c:axId val="1247572224"/>
+        <c:axId val="1247564608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2767,11 +2768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811934592"/>
-        <c:axId val="811948192"/>
+        <c:axId val="1247563520"/>
+        <c:axId val="1247570592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811938400"/>
+        <c:axId val="1247572224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,7 +2815,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811936768"/>
+        <c:crossAx val="1247564608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2822,7 +2823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811936768"/>
+        <c:axId val="1247564608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,12 +2874,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811938400"/>
+        <c:crossAx val="1247572224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="811948192"/>
+        <c:axId val="1247570592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,12 +2916,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811934592"/>
+        <c:crossAx val="1247563520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811934592"/>
+        <c:axId val="1247563520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2931,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="811948192"/>
+        <c:crossAx val="1247570592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3397,8 +3398,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="811941120"/>
-        <c:axId val="811938944"/>
+        <c:axId val="1247565696"/>
+        <c:axId val="1247571680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3744,11 +3745,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811941664"/>
-        <c:axId val="811945472"/>
+        <c:axId val="1247576576"/>
+        <c:axId val="1247564064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811941120"/>
+        <c:axId val="1247565696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3791,7 +3792,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811938944"/>
+        <c:crossAx val="1247571680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3799,7 +3800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811938944"/>
+        <c:axId val="1247571680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3850,12 +3851,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811941120"/>
+        <c:crossAx val="1247565696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="811945472"/>
+        <c:axId val="1247564064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3892,12 +3893,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811941664"/>
+        <c:crossAx val="1247576576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811941664"/>
+        <c:axId val="1247576576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,7 +3908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="811945472"/>
+        <c:crossAx val="1247564064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4374,8 +4375,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="811943296"/>
-        <c:axId val="811935136"/>
+        <c:axId val="1247572768"/>
+        <c:axId val="1247567328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4721,11 +4722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811943840"/>
-        <c:axId val="811947648"/>
+        <c:axId val="1247573856"/>
+        <c:axId val="1247573312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811943296"/>
+        <c:axId val="1247572768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4768,7 +4769,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811935136"/>
+        <c:crossAx val="1247567328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4776,7 +4777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811935136"/>
+        <c:axId val="1247567328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,12 +4828,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811943296"/>
+        <c:crossAx val="1247572768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="811947648"/>
+        <c:axId val="1247573312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,12 +4870,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811943840"/>
+        <c:crossAx val="1247573856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811943840"/>
+        <c:axId val="1247573856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4884,7 +4885,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="811947648"/>
+        <c:crossAx val="1247573312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5351,8 +5352,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="811944384"/>
-        <c:axId val="811948736"/>
+        <c:axId val="1247574400"/>
+        <c:axId val="1247574944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5698,11 +5699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811944928"/>
-        <c:axId val="811949280"/>
+        <c:axId val="1247565152"/>
+        <c:axId val="1247575488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811944384"/>
+        <c:axId val="1247574400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,7 +5746,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811948736"/>
+        <c:crossAx val="1247574944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5753,7 +5754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811948736"/>
+        <c:axId val="1247574944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,12 +5805,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811944384"/>
+        <c:crossAx val="1247574400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="811949280"/>
+        <c:axId val="1247575488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5846,12 +5847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811944928"/>
+        <c:crossAx val="1247565152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811944928"/>
+        <c:axId val="1247565152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5862,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="811949280"/>
+        <c:crossAx val="1247575488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6328,8 +6329,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="812150288"/>
-        <c:axId val="812146480"/>
+        <c:axId val="1247577120"/>
+        <c:axId val="1247568960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6675,11 +6676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="812148656"/>
-        <c:axId val="812149200"/>
+        <c:axId val="1247577664"/>
+        <c:axId val="1247566240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="812150288"/>
+        <c:axId val="1247577120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6722,7 +6723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812146480"/>
+        <c:crossAx val="1247568960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6730,7 +6731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="812146480"/>
+        <c:axId val="1247568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6781,12 +6782,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812150288"/>
+        <c:crossAx val="1247577120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="812149200"/>
+        <c:axId val="1247566240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,12 +6824,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812148656"/>
+        <c:crossAx val="1247577664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="812148656"/>
+        <c:axId val="1247577664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,7 +6839,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="812149200"/>
+        <c:crossAx val="1247566240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7305,8 +7306,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="812151376"/>
-        <c:axId val="812141040"/>
+        <c:axId val="1247578208"/>
+        <c:axId val="1247566784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7652,11 +7653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="812137776"/>
-        <c:axId val="812138320"/>
+        <c:axId val="1247567872"/>
+        <c:axId val="1247578752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="812151376"/>
+        <c:axId val="1247578208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7699,7 +7700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812141040"/>
+        <c:crossAx val="1247566784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7707,7 +7708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="812141040"/>
+        <c:axId val="1247566784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,12 +7759,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812151376"/>
+        <c:crossAx val="1247578208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="812138320"/>
+        <c:axId val="1247578752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7800,12 +7801,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812137776"/>
+        <c:crossAx val="1247567872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="812137776"/>
+        <c:axId val="1247567872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7815,7 +7816,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="812138320"/>
+        <c:crossAx val="1247578752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7832,6 +7833,931 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>平均设备数量和覆盖率随信号次数变化图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>平均!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>正四边形法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>平均!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.066666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.26666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129.93333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>平均!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>等边三角形法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>平均!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>平均!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>我们的方法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>平均!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.933333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1122785024"/>
+        <c:axId val="1122788832"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>平均!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>平均!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99119999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98033999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95508666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97186666666666643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95865333333333325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96906000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95797999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97449333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96533333333333327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>平均!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>平均!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99201333333333319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97112666666666658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9691333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96884000000000015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95930666666666653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96379333333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96220666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96501999999999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95858666666666659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94323999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>平均!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>平均!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.99949333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99949333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99924666666666662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99881333333333322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99870666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99846000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99764666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99640666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99592000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99557333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1123625056"/>
+        <c:axId val="1122789376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1122785024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>信号次数要求</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122788832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1122788832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>平均设备数量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122785024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1122789376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>信号覆盖率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123625056"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1123625056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1122789376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8282,8 +9208,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="735819280"/>
-        <c:axId val="735820912"/>
+        <c:axId val="1122782304"/>
+        <c:axId val="1122786112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8629,11 +9555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="735824176"/>
-        <c:axId val="735832880"/>
+        <c:axId val="1122792096"/>
+        <c:axId val="1122783936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="735819280"/>
+        <c:axId val="1122782304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8676,7 +9602,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735820912"/>
+        <c:crossAx val="1122786112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8684,7 +9610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="735820912"/>
+        <c:axId val="1122786112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8735,12 +9661,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735819280"/>
+        <c:crossAx val="1122782304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735832880"/>
+        <c:axId val="1122783936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8777,12 +9703,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735824176"/>
+        <c:crossAx val="1122792096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="735824176"/>
+        <c:axId val="1122792096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8792,7 +9718,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="735832880"/>
+        <c:crossAx val="1122783936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9250,8 +10176,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="735826896"/>
-        <c:axId val="735828528"/>
+        <c:axId val="1122784480"/>
+        <c:axId val="1122790464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9588,11 +10514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="735821456"/>
-        <c:axId val="735833424"/>
+        <c:axId val="1122779584"/>
+        <c:axId val="1122794272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="735826896"/>
+        <c:axId val="1122784480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9635,7 +10561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735828528"/>
+        <c:crossAx val="1122790464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9643,7 +10569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="735828528"/>
+        <c:axId val="1122790464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9694,12 +10620,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735826896"/>
+        <c:crossAx val="1122784480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735833424"/>
+        <c:axId val="1122794272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9736,12 +10662,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735821456"/>
+        <c:crossAx val="1122779584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="735821456"/>
+        <c:axId val="1122779584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9751,7 +10677,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="735833424"/>
+        <c:crossAx val="1122794272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10209,8 +11135,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="735831248"/>
-        <c:axId val="735818192"/>
+        <c:axId val="1122786656"/>
+        <c:axId val="1122780128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10547,11 +11473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="735819824"/>
-        <c:axId val="735818736"/>
+        <c:axId val="1122793184"/>
+        <c:axId val="1122792640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="735831248"/>
+        <c:axId val="1122786656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10594,7 +11520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735818192"/>
+        <c:crossAx val="1122780128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10602,7 +11528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="735818192"/>
+        <c:axId val="1122780128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10653,12 +11579,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735831248"/>
+        <c:crossAx val="1122786656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735818736"/>
+        <c:axId val="1122792640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10695,12 +11621,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735819824"/>
+        <c:crossAx val="1122793184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="735819824"/>
+        <c:axId val="1122793184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10710,7 +11636,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="735818736"/>
+        <c:crossAx val="1122792640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11072,8 +11998,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="956306528"/>
-        <c:axId val="956298912"/>
+        <c:axId val="1122781760"/>
+        <c:axId val="1122787200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11294,11 +12220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="956310880"/>
-        <c:axId val="956301088"/>
+        <c:axId val="1122787744"/>
+        <c:axId val="1122780672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="956306528"/>
+        <c:axId val="1122781760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11396,7 +12322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956298912"/>
+        <c:crossAx val="1122787200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11404,7 +12330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="956298912"/>
+        <c:axId val="1122787200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11511,11 +12437,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956306528"/>
+        <c:crossAx val="1122781760"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="956301088"/>
+        <c:axId val="1122780672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11552,12 +12479,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956310880"/>
+        <c:crossAx val="1122787744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="956310880"/>
+        <c:axId val="1122787744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11566,7 +12493,8 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="956301088"/>
+        <c:crossAx val="1122780672"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12044,8 +12972,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="735823632"/>
-        <c:axId val="735827440"/>
+        <c:axId val="1122785568"/>
+        <c:axId val="1122788288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12391,11 +13319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="735829616"/>
-        <c:axId val="735827984"/>
+        <c:axId val="1122781216"/>
+        <c:axId val="1122791008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="735823632"/>
+        <c:axId val="1122785568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12438,7 +13366,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735827440"/>
+        <c:crossAx val="1122788288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12446,7 +13374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="735827440"/>
+        <c:axId val="1122788288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12497,12 +13425,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735823632"/>
+        <c:crossAx val="1122785568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735827984"/>
+        <c:axId val="1122791008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12539,12 +13467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735829616"/>
+        <c:crossAx val="1122781216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="735829616"/>
+        <c:axId val="1122781216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12554,7 +13482,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="735827984"/>
+        <c:crossAx val="1122791008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13012,8 +13940,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="735830160"/>
-        <c:axId val="735829072"/>
+        <c:axId val="685798112"/>
+        <c:axId val="685799744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13350,11 +14278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811936224"/>
-        <c:axId val="735830704"/>
+        <c:axId val="685801376"/>
+        <c:axId val="685810080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="735830160"/>
+        <c:axId val="685798112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13397,7 +14325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735829072"/>
+        <c:crossAx val="685799744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13405,7 +14333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="735829072"/>
+        <c:axId val="685799744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13456,12 +14384,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735830160"/>
+        <c:crossAx val="685798112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735830704"/>
+        <c:axId val="685810080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13498,12 +14426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811936224"/>
+        <c:crossAx val="685801376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811936224"/>
+        <c:axId val="685801376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13513,7 +14441,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="735830704"/>
+        <c:crossAx val="685810080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13980,8 +14908,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="811935680"/>
-        <c:axId val="811937312"/>
+        <c:axId val="685801920"/>
+        <c:axId val="685166656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14327,11 +15255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811940576"/>
-        <c:axId val="811946560"/>
+        <c:axId val="685167744"/>
+        <c:axId val="685165024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811935680"/>
+        <c:axId val="685801920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14374,7 +15302,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811937312"/>
+        <c:crossAx val="685166656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14382,7 +15310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811937312"/>
+        <c:axId val="685166656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14433,12 +15361,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811935680"/>
+        <c:crossAx val="685801920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="811946560"/>
+        <c:axId val="685165024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14475,12 +15403,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811940576"/>
+        <c:crossAx val="685167744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811940576"/>
+        <c:axId val="685167744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14490,7 +15418,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="811946560"/>
+        <c:crossAx val="685165024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14957,8 +15885,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="811937856"/>
-        <c:axId val="811947104"/>
+        <c:axId val="685167200"/>
+        <c:axId val="1115747120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15304,11 +16232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="811942208"/>
-        <c:axId val="811946016"/>
+        <c:axId val="1115740048"/>
+        <c:axId val="1115743856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811937856"/>
+        <c:axId val="685167200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15351,7 +16279,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811947104"/>
+        <c:crossAx val="1115747120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15359,7 +16287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811947104"/>
+        <c:axId val="1115747120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15410,12 +16338,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811937856"/>
+        <c:crossAx val="685167200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="811946016"/>
+        <c:axId val="1115743856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15452,12 +16380,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811942208"/>
+        <c:crossAx val="1115740048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="811942208"/>
+        <c:axId val="1115740048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15467,7 +16395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="811946016"/>
+        <c:crossAx val="1115743856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15871,6 +16799,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20341,6 +21309,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -24479,8 +25963,8 @@
       <xdr:rowOff>698500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
@@ -24740,6 +26224,43 @@
       <xdr:colOff>628651</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25599,7 +27120,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -25618,10 +27139,10 @@
         <v>58</v>
       </c>
       <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
         <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
@@ -25950,7 +27471,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -26446,7 +27967,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -26941,7 +28462,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27444,7 +28965,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27937,7 +29458,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -28433,7 +29954,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -28929,7 +30450,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -29405,6 +30926,502 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>17.866666666666667</v>
+      </c>
+      <c r="I3">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.99119999999999986</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.99201333333333319</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.99949333333333334</v>
+      </c>
+      <c r="M3" s="4">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>0.34</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>27.733333333333334</v>
+      </c>
+      <c r="H4">
+        <v>25.6</v>
+      </c>
+      <c r="I4">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.98033999999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.97112666666666658</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.99949333333333334</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>34.6</v>
+      </c>
+      <c r="H5">
+        <v>34.866666666666667</v>
+      </c>
+      <c r="I5">
+        <v>23.4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.95508666666666664</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.9691333333333334</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.99924666666666662</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>1.77</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>48.466666666666669</v>
+      </c>
+      <c r="H6">
+        <v>47.4</v>
+      </c>
+      <c r="I6">
+        <v>30.8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.97186666666666643</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.96884000000000015</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.99881333333333322</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>11.14</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>56.06666666666667</v>
+      </c>
+      <c r="H7">
+        <v>55.6</v>
+      </c>
+      <c r="I7">
+        <v>38.533333333333331</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.95865333333333325</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.95930666666666653</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.99870666666666663</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>21.35</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>87.066666666666663</v>
+      </c>
+      <c r="H8">
+        <v>71.533333333333331</v>
+      </c>
+      <c r="I8">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.96906000000000003</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.96379333333333339</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.99846000000000001</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>16.46</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>101.26666666666667</v>
+      </c>
+      <c r="H9">
+        <v>82.533333333333331</v>
+      </c>
+      <c r="I9">
+        <v>54.4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.95797999999999994</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.96220666666666665</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.99764666666666668</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>129.93333333333334</v>
+      </c>
+      <c r="H10">
+        <v>102.4</v>
+      </c>
+      <c r="I10">
+        <v>62.06666666666667</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.96501999999999988</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.99640666666666666</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>13.93</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="H11">
+        <v>113.6</v>
+      </c>
+      <c r="I11">
+        <v>70.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.97449333333333332</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.95858666666666659</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.99592000000000014</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>3.66</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="H12">
+        <v>113.6</v>
+      </c>
+      <c r="I12">
+        <v>77.933333333333337</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.96533333333333327</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.94323999999999986</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.99557333333333331</v>
+      </c>
+      <c r="M12" s="4">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1.49</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -29428,7 +31445,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -29843,8 +31860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -30248,7 +32265,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -30716,8 +32733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -31213,7 +33230,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -31709,7 +33726,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -32188,7 +34205,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -32688,7 +34705,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I12"/>
+      <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/experiment_results/results-V2.xlsx
+++ b/experiment_results/results-V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,11 +751,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1122794816"/>
-        <c:axId val="1122791552"/>
+        <c:axId val="453080640"/>
+        <c:axId val="453075744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122794816"/>
+        <c:axId val="453080640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +866,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122791552"/>
+        <c:crossAx val="453075744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1122791552"/>
+        <c:axId val="453075744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -968,7 +968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122794816"/>
+        <c:crossAx val="453080640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,8 +1444,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1005655808"/>
-        <c:axId val="1005661792"/>
+        <c:axId val="463947136"/>
+        <c:axId val="463958016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1791,11 +1791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247571136"/>
-        <c:axId val="1247576032"/>
+        <c:axId val="463958560"/>
+        <c:axId val="463945504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1005655808"/>
+        <c:axId val="463947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +1838,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005661792"/>
+        <c:crossAx val="463958016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1846,7 +1846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1005661792"/>
+        <c:axId val="463958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,12 +1897,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005655808"/>
+        <c:crossAx val="463947136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1247576032"/>
+        <c:axId val="463945504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,12 +1939,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247571136"/>
+        <c:crossAx val="463958560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1247571136"/>
+        <c:axId val="463958560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1954,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1247576032"/>
+        <c:crossAx val="463945504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2053,7 +2053,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2421,8 +2420,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1247572224"/>
-        <c:axId val="1247564608"/>
+        <c:axId val="463959104"/>
+        <c:axId val="463951488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2768,11 +2767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247563520"/>
-        <c:axId val="1247570592"/>
+        <c:axId val="463948768"/>
+        <c:axId val="463949312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247572224"/>
+        <c:axId val="463959104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,7 +2814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247564608"/>
+        <c:crossAx val="463951488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2823,7 +2822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247564608"/>
+        <c:axId val="463951488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,12 +2873,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247572224"/>
+        <c:crossAx val="463959104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1247570592"/>
+        <c:axId val="463949312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,12 +2915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247563520"/>
+        <c:crossAx val="463948768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1247563520"/>
+        <c:axId val="463948768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,7 +2930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1247570592"/>
+        <c:crossAx val="463949312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2948,7 +2947,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3030,7 +3028,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3398,8 +3395,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1247565696"/>
-        <c:axId val="1247571680"/>
+        <c:axId val="463946048"/>
+        <c:axId val="463946592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3745,11 +3742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247576576"/>
-        <c:axId val="1247564064"/>
+        <c:axId val="463948224"/>
+        <c:axId val="463947680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247565696"/>
+        <c:axId val="463946048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,7 +3789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247571680"/>
+        <c:crossAx val="463946592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3800,7 +3797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247571680"/>
+        <c:axId val="463946592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,12 +3848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247565696"/>
+        <c:crossAx val="463946048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1247564064"/>
+        <c:axId val="463947680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,12 +3890,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247576576"/>
+        <c:crossAx val="463948224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1247576576"/>
+        <c:axId val="463948224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3905,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1247564064"/>
+        <c:crossAx val="463947680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3925,7 +3922,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4007,7 +4003,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4375,8 +4370,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1247572768"/>
-        <c:axId val="1247567328"/>
+        <c:axId val="463950400"/>
+        <c:axId val="463952032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4722,11 +4717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247573856"/>
-        <c:axId val="1247573312"/>
+        <c:axId val="463953120"/>
+        <c:axId val="463952576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247572768"/>
+        <c:axId val="463950400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,7 +4764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247567328"/>
+        <c:crossAx val="463952032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4777,7 +4772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247567328"/>
+        <c:axId val="463952032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,12 +4823,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247572768"/>
+        <c:crossAx val="463950400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1247573312"/>
+        <c:axId val="463952576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,12 +4865,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247573856"/>
+        <c:crossAx val="463953120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1247573856"/>
+        <c:axId val="463953120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,7 +4880,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1247573312"/>
+        <c:crossAx val="463952576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4902,7 +4897,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4984,7 +4978,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5352,8 +5345,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1247574400"/>
-        <c:axId val="1247574944"/>
+        <c:axId val="463953664"/>
+        <c:axId val="463954208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5699,11 +5692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247565152"/>
-        <c:axId val="1247575488"/>
+        <c:axId val="462641440"/>
+        <c:axId val="463955296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247574400"/>
+        <c:axId val="463953664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,7 +5739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247574944"/>
+        <c:crossAx val="463954208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5754,7 +5747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247574944"/>
+        <c:axId val="463954208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5805,12 +5798,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247574400"/>
+        <c:crossAx val="463953664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1247575488"/>
+        <c:axId val="463955296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,12 +5840,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247565152"/>
+        <c:crossAx val="462641440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1247565152"/>
+        <c:axId val="462641440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5862,7 +5855,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1247575488"/>
+        <c:crossAx val="463955296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5879,7 +5872,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5961,7 +5953,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6329,8 +6320,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1247577120"/>
-        <c:axId val="1247568960"/>
+        <c:axId val="462639264"/>
+        <c:axId val="462644704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6676,11 +6667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247577664"/>
-        <c:axId val="1247566240"/>
+        <c:axId val="462643616"/>
+        <c:axId val="462653952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247577120"/>
+        <c:axId val="462639264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6723,7 +6714,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247568960"/>
+        <c:crossAx val="462644704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6731,7 +6722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247568960"/>
+        <c:axId val="462644704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,12 +6773,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247577120"/>
+        <c:crossAx val="462639264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1247566240"/>
+        <c:axId val="462653952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6824,12 +6815,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247577664"/>
+        <c:crossAx val="462643616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1247577664"/>
+        <c:axId val="462643616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6839,7 +6830,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1247566240"/>
+        <c:crossAx val="462653952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6856,7 +6847,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6938,7 +6928,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7306,8 +7295,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1247578208"/>
-        <c:axId val="1247566784"/>
+        <c:axId val="462647424"/>
+        <c:axId val="462640352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7653,11 +7642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1247567872"/>
-        <c:axId val="1247578752"/>
+        <c:axId val="462650688"/>
+        <c:axId val="462654496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247578208"/>
+        <c:axId val="462647424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7700,7 +7689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247566784"/>
+        <c:crossAx val="462640352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7708,7 +7697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247566784"/>
+        <c:axId val="462640352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7759,12 +7748,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247578208"/>
+        <c:crossAx val="462647424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1247578752"/>
+        <c:axId val="462654496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7801,12 +7790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247567872"/>
+        <c:crossAx val="462650688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1247567872"/>
+        <c:axId val="462650688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7816,7 +7805,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1247578752"/>
+        <c:crossAx val="462654496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7833,7 +7822,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7940,7 +7928,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8178,8 +8165,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1122785024"/>
-        <c:axId val="1122788832"/>
+        <c:axId val="462643072"/>
+        <c:axId val="462640896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8201,7 +8188,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="97000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -8400,11 +8389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1123625056"/>
-        <c:axId val="1122789376"/>
+        <c:axId val="462651232"/>
+        <c:axId val="462645248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122785024"/>
+        <c:axId val="462643072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8450,7 +8439,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8516,7 +8504,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122788832"/>
+        <c:crossAx val="462640896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8524,7 +8512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1122788832"/>
+        <c:axId val="462640896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8556,7 +8544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8617,12 +8604,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122785024"/>
+        <c:crossAx val="462643072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1122789376"/>
+        <c:axId val="462645248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8654,7 +8641,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8715,12 +8701,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1123625056"/>
+        <c:crossAx val="462651232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1123625056"/>
+        <c:axId val="462651232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8729,7 +8715,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1122789376"/>
+        <c:crossAx val="462645248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8758,7 +8744,6 @@
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9208,8 +9193,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1122782304"/>
-        <c:axId val="1122786112"/>
+        <c:axId val="453075200"/>
+        <c:axId val="453079008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9555,11 +9540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1122792096"/>
-        <c:axId val="1122783936"/>
+        <c:axId val="453082816"/>
+        <c:axId val="453076288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122782304"/>
+        <c:axId val="453075200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9602,7 +9587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122786112"/>
+        <c:crossAx val="453079008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9610,7 +9595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1122786112"/>
+        <c:axId val="453079008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9661,12 +9646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122782304"/>
+        <c:crossAx val="453075200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1122783936"/>
+        <c:axId val="453076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9703,12 +9688,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122792096"/>
+        <c:crossAx val="453082816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1122792096"/>
+        <c:axId val="453082816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9718,7 +9703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1122783936"/>
+        <c:crossAx val="453076288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10176,8 +10161,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1122784480"/>
-        <c:axId val="1122790464"/>
+        <c:axId val="453083360"/>
+        <c:axId val="453083904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10514,11 +10499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1122779584"/>
-        <c:axId val="1122794272"/>
+        <c:axId val="453077920"/>
+        <c:axId val="453084448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122784480"/>
+        <c:axId val="453083360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10561,7 +10546,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122790464"/>
+        <c:crossAx val="453083904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10569,7 +10554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1122790464"/>
+        <c:axId val="453083904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10620,12 +10605,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122784480"/>
+        <c:crossAx val="453083360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1122794272"/>
+        <c:axId val="453084448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10662,12 +10647,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122779584"/>
+        <c:crossAx val="453077920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1122779584"/>
+        <c:axId val="453077920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10677,7 +10662,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1122794272"/>
+        <c:crossAx val="453084448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11135,8 +11120,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1122786656"/>
-        <c:axId val="1122780128"/>
+        <c:axId val="453088256"/>
+        <c:axId val="453086080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11473,11 +11458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1122793184"/>
-        <c:axId val="1122792640"/>
+        <c:axId val="453089344"/>
+        <c:axId val="453087168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122786656"/>
+        <c:axId val="453088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11520,7 +11505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122780128"/>
+        <c:crossAx val="453086080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11528,7 +11513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1122780128"/>
+        <c:axId val="453086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11579,12 +11564,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122786656"/>
+        <c:crossAx val="453088256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1122792640"/>
+        <c:axId val="453087168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11621,12 +11606,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122793184"/>
+        <c:crossAx val="453089344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1122793184"/>
+        <c:axId val="453089344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11636,7 +11621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1122792640"/>
+        <c:crossAx val="453087168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11998,8 +11983,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1122781760"/>
-        <c:axId val="1122787200"/>
+        <c:axId val="453081184"/>
+        <c:axId val="453084992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12220,11 +12205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1122787744"/>
-        <c:axId val="1122780672"/>
+        <c:axId val="453085536"/>
+        <c:axId val="453076832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122781760"/>
+        <c:axId val="453081184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12322,7 +12307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122787200"/>
+        <c:crossAx val="453084992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12330,7 +12315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1122787200"/>
+        <c:axId val="453084992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12437,12 +12422,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122781760"/>
+        <c:crossAx val="453081184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1122780672"/>
+        <c:axId val="453076832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12479,12 +12464,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122787744"/>
+        <c:crossAx val="453085536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1122787744"/>
+        <c:axId val="453085536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12493,7 +12478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1122780672"/>
+        <c:crossAx val="453076832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12972,8 +12957,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1122785568"/>
-        <c:axId val="1122788288"/>
+        <c:axId val="453086624"/>
+        <c:axId val="340634048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13319,11 +13304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1122781216"/>
-        <c:axId val="1122791008"/>
+        <c:axId val="340623712"/>
+        <c:axId val="340623168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122785568"/>
+        <c:axId val="453086624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13366,7 +13351,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122788288"/>
+        <c:crossAx val="340634048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13374,7 +13359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1122788288"/>
+        <c:axId val="340634048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13425,12 +13410,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122785568"/>
+        <c:crossAx val="453086624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1122791008"/>
+        <c:axId val="340623168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13467,12 +13452,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122781216"/>
+        <c:crossAx val="340623712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1122781216"/>
+        <c:axId val="340623712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13482,7 +13467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1122791008"/>
+        <c:crossAx val="340623168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13940,8 +13925,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="685798112"/>
-        <c:axId val="685799744"/>
+        <c:axId val="340625344"/>
+        <c:axId val="2142224688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14278,11 +14263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="685801376"/>
-        <c:axId val="685810080"/>
+        <c:axId val="463955840"/>
+        <c:axId val="463943872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="685798112"/>
+        <c:axId val="340625344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14325,7 +14310,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685799744"/>
+        <c:crossAx val="2142224688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14333,7 +14318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685799744"/>
+        <c:axId val="2142224688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14384,12 +14369,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685798112"/>
+        <c:crossAx val="340625344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="685810080"/>
+        <c:axId val="463943872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14426,12 +14411,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685801376"/>
+        <c:crossAx val="463955840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="685801376"/>
+        <c:axId val="463955840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14441,7 +14426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="685810080"/>
+        <c:crossAx val="463943872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14908,8 +14893,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="685801920"/>
-        <c:axId val="685166656"/>
+        <c:axId val="463954752"/>
+        <c:axId val="463957472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15255,11 +15240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="685167744"/>
-        <c:axId val="685165024"/>
+        <c:axId val="463956384"/>
+        <c:axId val="463950944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="685801920"/>
+        <c:axId val="463954752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15302,7 +15287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685166656"/>
+        <c:crossAx val="463957472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15310,7 +15295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685166656"/>
+        <c:axId val="463957472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15361,12 +15346,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685801920"/>
+        <c:crossAx val="463954752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="685165024"/>
+        <c:axId val="463950944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15403,12 +15388,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685167744"/>
+        <c:crossAx val="463956384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="685167744"/>
+        <c:axId val="463956384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15418,7 +15403,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="685165024"/>
+        <c:crossAx val="463950944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15885,8 +15870,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="685167200"/>
-        <c:axId val="1115747120"/>
+        <c:axId val="463944416"/>
+        <c:axId val="463944960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16232,11 +16217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1115740048"/>
-        <c:axId val="1115743856"/>
+        <c:axId val="463949856"/>
+        <c:axId val="463956928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="685167200"/>
+        <c:axId val="463944416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16279,7 +16264,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115747120"/>
+        <c:crossAx val="463944960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16287,7 +16272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1115747120"/>
+        <c:axId val="463944960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16338,12 +16323,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685167200"/>
+        <c:crossAx val="463944416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1115743856"/>
+        <c:axId val="463956928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16380,12 +16365,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115740048"/>
+        <c:crossAx val="463949856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1115740048"/>
+        <c:axId val="463949856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16395,7 +16380,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1115743856"/>
+        <c:crossAx val="463956928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27119,8 +27104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27470,7 +27455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -28964,7 +28949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:L12"/>
     </sheetView>
   </sheetViews>
@@ -30948,8 +30933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -31445,7 +31430,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -31858,10 +31843,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -32245,6 +32230,12 @@
       </c>
       <c r="P12">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f>AVERAGE(P3:P12)</f>
+        <v>4.4679999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -32256,7 +32247,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32264,8 +32256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -33230,7 +33222,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -33726,7 +33718,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -34205,7 +34197,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -34705,7 +34697,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
